--- a/share/config/卡坦岛.xlsx
+++ b/share/config/卡坦岛.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -66,6 +66,36 @@
     <t>bankPort</t>
   </si>
   <si>
+    <t>brickMax</t>
+  </si>
+  <si>
+    <t>lumberMax</t>
+  </si>
+  <si>
+    <t>woolMax</t>
+  </si>
+  <si>
+    <t>gainMax</t>
+  </si>
+  <si>
+    <t>oreMax</t>
+  </si>
+  <si>
+    <t>knightMax</t>
+  </si>
+  <si>
+    <t>monopolyMax</t>
+  </si>
+  <si>
+    <t>richMax</t>
+  </si>
+  <si>
+    <t>roadMax</t>
+  </si>
+  <si>
+    <t>pointMax</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -129,6 +159,36 @@
     <t>3比1港口</t>
   </si>
   <si>
+    <t>砖头上限</t>
+  </si>
+  <si>
+    <t>木材上限</t>
+  </si>
+  <si>
+    <t>羊毛上限</t>
+  </si>
+  <si>
+    <t>小麦上限</t>
+  </si>
+  <si>
+    <t>煤矿上限</t>
+  </si>
+  <si>
+    <t>骑士卡上限</t>
+  </si>
+  <si>
+    <t>垄断卡上限</t>
+  </si>
+  <si>
+    <t>丰收卡上限</t>
+  </si>
+  <si>
+    <t>道路卡上限</t>
+  </si>
+  <si>
+    <t>胜利点上限</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -148,6 +208,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>x</t>
@@ -215,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -288,6 +357,19 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -302,6 +384,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
@@ -331,6 +424,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
         <color indexed="12"/>
       </right>
@@ -433,7 +539,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -473,10 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -485,13 +588,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -500,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1620,7 +1735,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1643,7 +1758,17 @@
     <col min="15" max="15" width="16.3516" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.3516" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="16.3516" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.3516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.3516" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.3516" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.3516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3516" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.3516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.3516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.3516" style="1" customWidth="1"/>
+    <col min="28" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.35" customHeight="1">
@@ -1698,164 +1823,284 @@
       <c r="Q1" t="s" s="3">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="3">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" ht="20.35" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s" s="3">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="R2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="50.35" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s" s="3">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="3">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s" s="3">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s" s="3">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s" s="3">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s" s="3">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s" s="3">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="R3" t="s" s="3">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s" s="3">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="U3" t="s" s="3">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s" s="3">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s" s="3">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s" s="3">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s" s="3">
+        <v>55</v>
+      </c>
+      <c r="Z3" t="s" s="3">
+        <v>56</v>
+      </c>
+      <c r="AA3" t="s" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="50.35" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s" s="3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s" s="3">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s" s="3">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s" s="3">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s" s="3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s" s="3">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s" s="3">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N4" t="s" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="P4" t="s" s="3">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q4" t="s" s="3">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="R4" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="T4" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="V4" t="s" s="3">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s" s="3">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z4" t="s" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA4" t="s" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -1876,101 +2121,161 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1992,12 +2297,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="13" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="16" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="16" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -2005,286 +2310,286 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="C1" t="s" s="17">
+        <v>69</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="C2" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" ht="59" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>49</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="14.65" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="23">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <v>0</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>0</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="23">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="24">
         <v>3</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="23">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="24">
         <v>-3</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="9"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>0</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="24">
         <v>-6</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="9"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="23">
         <v>-3</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="24">
         <v>-3</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>-3</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="9"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="23">
         <v>0</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="24">
         <v>12</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="24">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" s="19">
+      <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="24">
         <v>6</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>6</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="24">
         <v>0</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="14.35" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="23">
         <v>6</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="24">
         <v>-6</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="9"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>3</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="24">
         <v>-9</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" s="19">
+      <c r="A17" s="22">
         <v>14</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="23">
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="24">
         <v>-12</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" ht="14.35" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>-3</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="24">
         <v>-9</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="9"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" s="19">
+      <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="23">
         <v>-6</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="24">
         <v>-6</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="9"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="14.35" customHeight="1">
-      <c r="A20" s="19">
+      <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>-6</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="24">
         <v>0</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" s="19">
+      <c r="A21" s="22">
         <v>18</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="23">
         <v>-6</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="24">
         <v>6</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="14.35" customHeight="1">
-      <c r="A22" s="19">
+      <c r="A22" s="22">
         <v>19</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <v>-3</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="24">
         <v>9</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
